--- a/data/小田急関連施設所在地.xlsx
+++ b/data/小田急関連施設所在地.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fukushige\Desktop\git\station_data_visualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C948E51-8BD6-4B70-91B6-2B8D54DBB3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1EE72-2FDF-4E85-B55D-9EFFC3002547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2753,15 +2753,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主な事業内容</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <t>事業</t>
+    <rPh sb="0" eb="2">
       <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3915,7 +3909,7 @@
     <tableColumn id="7" xr3:uid="{A100F3F3-B9C6-426B-95DC-70C6D08DC167}" name="カテゴリ" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[小田急電鉄]],[1]Sheet1!$A$2:$F$52,4,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A90902F5-5989-446F-ADF7-00281B41A03E}" name="主な事業内容" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{A90902F5-5989-446F-ADF7-00281B41A03E}" name="事業" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[小田急電鉄]],[1]Sheet1!$A$2:$F$52,5,)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4223,7 +4217,7 @@
   <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
